--- a/Lab 03/diglab_03_03/diglab_03_03_pics/diglab_03_03_table.xlsx
+++ b/Lab 03/diglab_03_03/diglab_03_03_pics/diglab_03_03_table.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\College Year 2\2110263 DIG LOGIC LAB I\2110263-DIG-LOGIC-LAB-I\Lab 03\diglab_03_03\diglab_03_03_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C712EB61-C7D1-4C0D-B1D4-3B8467E18403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30613701-FD57-42D7-9810-B97CC14E2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2F5C648-1E30-482C-A813-F5047B4D4EC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E2F5C648-1E30-482C-A813-F5047B4D4EC4}"/>
   </bookViews>
   <sheets>
-    <sheet name="MUX-4-to-1" sheetId="5" r:id="rId1"/>
-    <sheet name="Excess-3 (A)" sheetId="1" r:id="rId2"/>
-    <sheet name="Cyclic (B)" sheetId="2" r:id="rId3"/>
-    <sheet name="2 4 2 1 Code (C)" sheetId="3" r:id="rId4"/>
-    <sheet name="6 4 2 -3 Code (D)" sheetId="4" r:id="rId5"/>
+    <sheet name="ALL" sheetId="6" r:id="rId1"/>
+    <sheet name="MUX-4-to-1" sheetId="5" r:id="rId2"/>
+    <sheet name="Excess-3 (A)" sheetId="1" r:id="rId3"/>
+    <sheet name="Cyclic (B)" sheetId="2" r:id="rId4"/>
+    <sheet name="2 4 2 1 Code (C)" sheetId="3" r:id="rId5"/>
+    <sheet name="6 4 2 -3 Code (D)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>INPUT</t>
   </si>
@@ -194,6 +195,21 @@
   </si>
   <si>
     <t>Z3</t>
+  </si>
+  <si>
+    <t>Binary Encoder</t>
+  </si>
+  <si>
+    <t>2 4 2 1 Code</t>
+  </si>
+  <si>
+    <t>Cyclic</t>
+  </si>
+  <si>
+    <t>Excess-3</t>
+  </si>
+  <si>
+    <t>6 4 2 -3 Code</t>
   </si>
 </sst>
 </file>
@@ -299,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -714,11 +730,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,178 +779,184 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,11 +1272,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA14123-C9A7-40CD-9882-A440816C80D3}">
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="5.5546875" style="1"/>
+    <col min="6" max="9" width="5.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="5.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="61"/>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="49"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="29">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0</v>
+      </c>
+      <c r="U4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>1</v>
+      </c>
+      <c r="R7" s="19">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
+        <v>1</v>
+      </c>
+      <c r="N10" s="19">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <v>1</v>
+      </c>
+      <c r="N13" s="20">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>1</v>
+      </c>
+      <c r="R13" s="20">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54"/>
+    </row>
+    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="56"/>
+    </row>
+    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="56"/>
+    </row>
+    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="56"/>
+    </row>
+    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="56"/>
+    </row>
+    <row r="19" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N14:Q19"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R14:U19"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F14:I19"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J14:M19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168B07BB-7BED-4ADA-8C1D-457EF44FBF72}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1232,326 +2302,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="54" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="53" t="s">
+      <c r="E2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="47" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48">
-        <v>0</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="33">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="48">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
-        <v>0</v>
-      </c>
-      <c r="B5" s="39">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="34">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="49">
-        <v>0</v>
-      </c>
-      <c r="F5" s="39">
-        <v>1</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
-        <v>1</v>
-      </c>
-      <c r="B6" s="39">
-        <v>0</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="34">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="49">
-        <v>1</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50">
-        <v>1</v>
-      </c>
-      <c r="B7" s="43">
-        <v>1</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="35">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="50">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="37" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="54" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="53" t="s">
+      <c r="A9" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="53" t="s">
+      <c r="E9" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="47" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="52"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48">
-        <v>0</v>
-      </c>
-      <c r="B11" s="38">
-        <v>0</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="33">
+        <v>0</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="48">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="32" t="s">
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
-        <v>0</v>
-      </c>
-      <c r="B12" s="39">
-        <v>1</v>
-      </c>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="34">
+        <v>0</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="49">
-        <v>0</v>
-      </c>
-      <c r="F12" s="39">
-        <v>1</v>
-      </c>
-      <c r="G12" s="33" t="s">
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
-        <v>1</v>
-      </c>
-      <c r="B13" s="39">
-        <v>0</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="A13" s="34">
+        <v>1</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="49">
-        <v>1</v>
-      </c>
-      <c r="F13" s="39">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33" t="s">
+      <c r="E13" s="34">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50">
-        <v>1</v>
-      </c>
-      <c r="B14" s="43">
-        <v>1</v>
-      </c>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="35">
+        <v>1</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="50">
-        <v>1</v>
-      </c>
-      <c r="F14" s="43">
-        <v>1</v>
-      </c>
-      <c r="G14" s="51" t="s">
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="37" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1574,12 +2644,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F19A281-2ECC-4C6E-BD02-235824F1149D}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1590,93 +2660,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>1</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -1688,10 +2758,10 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="39">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -1700,12 +2770,12 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -1717,10 +2787,10 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -1729,12 +2799,12 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="2">
@@ -1746,10 +2816,10 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -1758,12 +2828,12 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -1775,10 +2845,10 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
         <v>0</v>
       </c>
       <c r="G8" s="3">
@@ -1787,12 +2857,12 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="2">
@@ -1804,10 +2874,10 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
         <v>1</v>
       </c>
       <c r="G9" s="3">
@@ -1816,12 +2886,12 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="2">
@@ -1833,10 +2903,10 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
       <c r="G10" s="3">
@@ -1845,12 +2915,12 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="2">
@@ -1862,10 +2932,10 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <v>1</v>
       </c>
       <c r="G11" s="3">
@@ -1874,12 +2944,12 @@
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -1891,10 +2961,10 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="39">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>1</v>
       </c>
       <c r="G12" s="3">
@@ -1903,64 +2973,64 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15" s="2">
@@ -1972,16 +3042,16 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="2">
@@ -1993,16 +3063,16 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="12"/>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" s="2">
@@ -2014,16 +3084,16 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="12"/>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="2">
@@ -2035,34 +3105,34 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="12"/>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="43">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2075,12 +3145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06CC410-E012-4F8F-A3AC-8A8826140E86}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2091,93 +3161,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -2189,10 +3259,10 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="39">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -2201,12 +3271,12 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -2218,10 +3288,10 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -2230,12 +3300,12 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="2">
@@ -2247,10 +3317,10 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -2259,12 +3329,12 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -2276,10 +3346,10 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
         <v>0</v>
       </c>
       <c r="G8" s="3">
@@ -2288,12 +3358,12 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="2">
@@ -2305,10 +3375,10 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
         <v>0</v>
       </c>
       <c r="G9" s="3">
@@ -2317,12 +3387,12 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="2">
@@ -2334,10 +3404,10 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>0</v>
       </c>
       <c r="G10" s="3">
@@ -2346,12 +3416,12 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="2">
@@ -2363,10 +3433,10 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <v>0</v>
       </c>
       <c r="G11" s="3">
@@ -2375,12 +3445,12 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -2392,10 +3462,10 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="39">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>1</v>
       </c>
       <c r="G12" s="3">
@@ -2404,64 +3474,64 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15" s="2">
@@ -2473,16 +3543,16 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="2">
@@ -2494,16 +3564,16 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="12"/>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" s="2">
@@ -2515,16 +3585,16 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="12"/>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="2">
@@ -2536,535 +3606,34 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="12"/>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="43">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F14:I19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7FF2B-07E3-43B1-8FC2-05B2869E84F7}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="5" width="5.5546875" style="1"/>
-    <col min="6" max="9" width="5.5546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="5.5546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="39">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="39">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="39">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
-        <v>15</v>
-      </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="43">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3078,11 +3647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372E9F0-88A0-4796-97B7-677A6EB639AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A7FF2B-07E3-43B1-8FC2-05B2869E84F7}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3093,93 +3662,594 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F14:I19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372E9F0-88A0-4796-97B7-677A6EB639AF}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="5.5546875" style="1"/>
+    <col min="6" max="9" width="5.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="5.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="2">
@@ -3191,10 +4261,10 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="39">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
         <v>0</v>
       </c>
       <c r="G5" s="3">
@@ -3203,12 +4273,12 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -3220,10 +4290,10 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="E6" s="24">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
         <v>0</v>
       </c>
       <c r="G6" s="3">
@@ -3232,12 +4302,12 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="2">
@@ -3249,10 +4319,10 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
         <v>1</v>
       </c>
       <c r="G7" s="3">
@@ -3261,12 +4331,12 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
@@ -3278,10 +4348,10 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="39">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
         <v>0</v>
       </c>
       <c r="G8" s="3">
@@ -3290,12 +4360,12 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="2">
@@ -3307,10 +4377,10 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="39">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
         <v>1</v>
       </c>
       <c r="G9" s="3">
@@ -3319,12 +4389,12 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="2">
@@ -3336,10 +4406,10 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="39">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
         <v>0</v>
       </c>
       <c r="G10" s="3">
@@ -3348,12 +4418,12 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" s="2">
@@ -3365,10 +4435,10 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <v>1</v>
       </c>
       <c r="G11" s="3">
@@ -3377,12 +4447,12 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -3394,10 +4464,10 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="39">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>1</v>
       </c>
       <c r="G12" s="3">
@@ -3406,64 +4476,64 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40">
+      <c r="A13" s="25">
         <v>9</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="41">
-        <v>1</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15" s="2">
@@ -3475,16 +4545,16 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="2">
@@ -3496,16 +4566,16 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="39">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="12"/>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" s="2">
@@ -3517,16 +4587,16 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="39">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="12"/>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" s="2">
@@ -3538,34 +4608,34 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="39">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="12"/>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13">
+      <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="43">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Lab 03/diglab_03_03/diglab_03_03_pics/diglab_03_03_table.xlsx
+++ b/Lab 03/diglab_03_03/diglab_03_03_pics/diglab_03_03_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\College Year 2\2110263 DIG LOGIC LAB I\2110263-DIG-LOGIC-LAB-I\Lab 03\diglab_03_03\diglab_03_03_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30613701-FD57-42D7-9810-B97CC14E2C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F0B0FB-A7B4-4A31-A5B2-326BB44F03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E2F5C648-1E30-482C-A813-F5047B4D4EC4}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>S1S0'C3</t>
   </si>
   <si>
-    <t>S1S0D4</t>
-  </si>
-  <si>
     <t>Z0</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>6 4 2 -3 Code</t>
+  </si>
+  <si>
+    <t>S1S0D3</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,9 +887,48 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -908,18 +947,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,36 +954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,62 +1284,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="61"/>
-    </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="47" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -2075,30 +2072,30 @@
       <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="53" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="53" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="53" t="s">
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -2116,22 +2113,22 @@
       <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="56"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -2149,22 +2146,22 @@
       <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="56"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -2182,22 +2179,22 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="56"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="45"/>
     </row>
     <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -2215,22 +2212,22 @@
       <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="56"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -2248,22 +2245,22 @@
       <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2287,7 +2284,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2302,38 +2299,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40"/>
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53"/>
       <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="40"/>
+      <c r="E2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="53"/>
       <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="54" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2345,9 +2342,9 @@
         <v>22</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="55"/>
       <c r="E3" s="32" t="s">
         <v>21</v>
       </c>
@@ -2355,9 +2352,9 @@
         <v>22</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="42"/>
+        <v>51</v>
+      </c>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33">
@@ -2464,38 +2461,38 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="40"/>
+      <c r="A9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="53"/>
       <c r="C9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="40"/>
+      <c r="E9" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="53"/>
       <c r="G9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="54" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2507,9 +2504,9 @@
         <v>22</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="D10" s="55"/>
       <c r="E10" s="32" t="s">
         <v>21</v>
       </c>
@@ -2517,9 +2514,9 @@
         <v>22</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="42"/>
+        <v>53</v>
+      </c>
+      <c r="H10" s="55"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
@@ -2622,7 +2619,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2660,32 +2657,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -3022,12 +3019,12 @@
       <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -3045,10 +3042,10 @@
       <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -3066,10 +3063,10 @@
       <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -3087,10 +3084,10 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -3108,10 +3105,10 @@
       <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -3129,10 +3126,10 @@
       <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3161,32 +3158,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -3523,12 +3520,12 @@
       <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -3546,10 +3543,10 @@
       <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -3567,10 +3564,10 @@
       <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -3588,10 +3585,10 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -3609,10 +3606,10 @@
       <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -3630,10 +3627,10 @@
       <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3662,32 +3659,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -4024,12 +4021,12 @@
       <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -4047,10 +4044,10 @@
       <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -4068,10 +4065,10 @@
       <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -4089,10 +4086,10 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -4110,10 +4107,10 @@
       <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -4131,10 +4128,10 @@
       <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4163,32 +4160,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
@@ -4525,12 +4522,12 @@
       <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -4548,10 +4545,10 @@
       <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -4569,10 +4566,10 @@
       <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -4590,10 +4587,10 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -4611,10 +4608,10 @@
       <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -4632,10 +4629,10 @@
       <c r="E19" s="28">
         <v>1</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
